--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\lr\MSc\operations\testcode2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\airlineplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D2BCA8-80F9-462E-A507-3C3A6BFFE2AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACC8EE-8CF1-4393-9DA9-AC0CF4BEED5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12168" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -253,104 +253,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="95">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{6B178EC5-5307-4FBA-91C7-C25AC4050729}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -690,12 +718,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.375" customWidth="1"/>
+    <col min="2" max="3" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -740,7 +768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -764,7 +792,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -785,7 +813,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -806,7 +834,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -827,7 +855,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -848,7 +876,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -871,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -894,7 +922,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -917,7 +945,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -940,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -963,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1014,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1037,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1129,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1170,10 +1198,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1196,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1247,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1270,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1339,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
